--- a/data/trans_orig/P02E$contratada-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F973BF0E-4256-4F11-B5B7-542EBB266F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDD3C6E-24D8-4B46-8F00-CED03F7B699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6B2170D-1C03-4E68-9522-D2C3C2EF66B3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E68CA492-8125-48F7-9C4D-734D1501C4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="672">
-  <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="697">
+  <si>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -814,10 +814,97 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2012</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -982,831 +1069,831 @@
     <t>86,82%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2016</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
     <t>8,57%</t>
   </si>
   <si>
@@ -1840,9 +1927,6 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
     <t>98,38%</t>
   </si>
   <si>
@@ -1987,9 +2071,6 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
     <t>3,02%</t>
   </si>
   <si>
@@ -2008,9 +2089,6 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
     <t>6,89%</t>
   </si>
   <si>
@@ -2045,9 +2123,6 @@
   </si>
   <si>
     <t>89,55%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
   </si>
   <si>
     <t>87,63%</t>
@@ -2465,7 +2540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9602437B-0D5D-4532-BB74-BD5AD4131540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A5DCFC-2514-4888-91A8-7A41C4009903}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3777,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988B1F8D-9A5E-42F5-82B1-B4B36D8DB9CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C27007-7F28-48E7-9290-6AD35C95E35D}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3868,28 +3943,28 @@
         <v>259</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3898,31 +3973,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3931,31 +4006,31 @@
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3964,31 +4039,31 @@
         <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3999,16 +4074,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>10</v>
@@ -4017,13 +4092,13 @@
         <v>159</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4032,31 +4107,31 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>235</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4065,31 +4140,31 @@
         <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4098,31 +4173,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4139,19 +4214,19 @@
         <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>10</v>
@@ -4172,16 +4247,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>48</v>
@@ -4190,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4199,31 +4274,31 @@
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>213</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4232,28 +4307,28 @@
         <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>90</v>
@@ -4267,31 +4342,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>314</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4300,31 +4375,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4333,31 +4408,31 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>140</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4366,31 +4441,31 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4401,13 +4476,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
@@ -4416,16 +4491,16 @@
         <v>12</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4440,25 +4515,25 @@
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -4467,31 +4542,31 @@
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -4500,31 +4575,31 @@
         <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -4535,13 +4610,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
@@ -4553,13 +4628,13 @@
         <v>154</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4574,25 +4649,25 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4601,13 +4676,13 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>211</v>
@@ -4616,16 +4691,16 @@
         <v>10</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -4634,31 +4709,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -4669,31 +4744,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -4702,13 +4777,13 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
@@ -4717,16 +4792,16 @@
         <v>12</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>404</v>
+        <v>270</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4735,31 +4810,31 @@
         <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4768,31 +4843,31 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -4809,10 +4884,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>423</v>
+        <v>274</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>324</v>
+        <v>451</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>10</v>
@@ -4821,13 +4896,13 @@
         <v>102</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>404</v>
+        <v>270</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -4836,13 +4911,13 @@
         <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>227</v>
@@ -4857,7 +4932,7 @@
         <v>51</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>39</v>
@@ -4872,28 +4947,28 @@
         <v>156</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>423</v>
+        <v>274</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -4902,31 +4977,31 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -4937,7 +5012,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>230</v>
@@ -4946,16 +5021,16 @@
         <v>156</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>314</v>
+        <v>468</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>46</v>
@@ -4970,31 +5045,31 @@
         <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5003,28 +5078,28 @@
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>453</v>
+        <v>357</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>204</v>
@@ -5036,31 +5111,31 @@
         <v>28</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -5089,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA67CF-B3F0-4C74-B417-49F457D7E115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0E6D28-7D4F-4364-A30D-49AB136B6E2E}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5106,7 +5181,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5177,31 +5252,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5210,31 +5285,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>478</v>
+        <v>354</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5243,31 +5318,31 @@
         <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5276,31 +5351,31 @@
         <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5311,31 +5386,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5344,13 +5419,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>10</v>
@@ -5365,10 +5440,10 @@
         <v>207</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5377,28 +5452,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>506</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>246</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -5410,31 +5485,31 @@
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5445,31 +5520,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5478,13 +5553,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
@@ -5493,16 +5568,16 @@
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>319</v>
+        <v>552</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5511,31 +5586,31 @@
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>561</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5544,28 +5619,28 @@
         <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>226</v>
@@ -5585,25 +5660,25 @@
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>572</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5612,16 +5687,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>545</v>
+        <v>346</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>10</v>
@@ -5630,13 +5705,13 @@
         <v>129</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5645,31 +5720,31 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5678,31 +5753,31 @@
         <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5713,13 +5788,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
@@ -5728,16 +5803,16 @@
         <v>12</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5752,25 +5827,25 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5785,25 +5860,25 @@
         <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>231</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5812,31 +5887,31 @@
         <v>28</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5850,28 +5925,28 @@
         <v>138</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>227</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5880,31 +5955,31 @@
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>323</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5913,25 +5988,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>10</v>
@@ -5946,31 +6021,31 @@
         <v>28</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>600</v>
+        <v>286</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5981,31 +6056,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>324</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6014,13 +6089,13 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>10</v>
@@ -6029,16 +6104,16 @@
         <v>12</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6047,31 +6122,31 @@
         <v>19</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6080,31 +6155,31 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6115,31 +6190,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>243</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6148,31 +6223,31 @@
         <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6181,31 +6256,31 @@
         <v>19</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6214,31 +6289,31 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6249,31 +6324,31 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>649</v>
+        <v>349</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6282,31 +6357,31 @@
         <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>626</v>
-      </c>
       <c r="J37" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6315,31 +6390,31 @@
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>656</v>
+        <v>348</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6348,31 +6423,31 @@
         <v>28</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>669</v>
+        <v>370</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
